--- a/.ready/分享记录-1704815683503.xlsx
+++ b/.ready/分享记录-1704815683503.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分享记录-1704815683503" sheetId="1" r:id="rId1"/>
@@ -2660,7 +2660,7 @@
   <sheetPr/>
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -7182,8 +7182,8 @@
   <sheetPr/>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.4444444444444" defaultRowHeight="50" customHeight="1" outlineLevelCol="2"/>

--- a/.ready/分享记录-1704815683503.xlsx
+++ b/.ready/分享记录-1704815683503.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A38B278-5258-493C-AAB2-1A17D3ED5981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分享记录-1704815683503" sheetId="1" r:id="rId1"/>
     <sheet name="软件类" sheetId="2" r:id="rId2"/>
+    <sheet name="游戏类" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="427">
   <si>
     <t>分享地址</t>
   </si>
@@ -1711,19 +1718,23 @@
   <si>
     <t>【ImageSearchMan】
 链接：https://pan.quark.cn/s/b7eedae85ab7</t>
+  </si>
+  <si>
+    <t>【Soul Knight】
+链接：https://pan.quark.cn/s/2089d004a506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【0】每天最新资源
+链接：https://pan.quark.cn/s/36d108e18c11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1732,345 +1743,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2078,255 +1774,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2339,62 +1793,21 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2652,27 +2065,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="95.4444444444444" defaultRowHeight="50" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="95.46484375" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="95.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="95.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2694,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2705,260 +2119,260 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>45132.6513888889</v>
+        <v>45132.651388888902</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>45133.0395833333</v>
+        <v>45133.039583333302</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>45133.3805555556</v>
+        <v>45133.380555555603</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>45133.4854166667</v>
+        <v>45133.485416666699</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>45133.6777777778</v>
+        <v>45133.677777777797</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>45133.9986111111</v>
+        <v>45133.998611111099</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>45134.4791666667</v>
+        <v>45134.479166666701</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3">
-        <v>45134.6555555556</v>
+        <v>45134.655555555597</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3">
-        <v>45134.6868055556</v>
+        <v>45134.686805555597</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3">
-        <v>45134.9006944444</v>
+        <v>45134.900694444397</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3">
-        <v>45135.4590277778</v>
+        <v>45135.459027777797</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
-        <v>45135.5673611111</v>
+        <v>45135.567361111098</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3">
-        <v>45135.70625</v>
+        <v>45135.706250000003</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>45135.9034722222</v>
+        <v>45135.903472222199</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>45136.5277777778</v>
+        <v>45136.527777777803</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>45136.9444444444</v>
+        <v>45136.944444444402</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>45137.0604166667</v>
+        <v>45137.060416666704</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>45137.6111111111</v>
+        <v>45137.611111111102</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>45137.6416666667</v>
+        <v>45137.641666666699</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>45137.6951388889</v>
+        <v>45137.695138888899</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>45137.8701388889</v>
+        <v>45137.870138888902</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>45138.0583333333</v>
+        <v>45138.058333333298</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:3">
+    <row r="26" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>45138.4659722222</v>
+        <v>45138.465972222199</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -2969,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2980,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2991,139 +2405,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="3">
-        <v>45139.0784722222</v>
+        <v>45139.078472222202</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="3">
-        <v>45139.6180555556</v>
+        <v>45139.618055555598</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:3">
+    <row r="32" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="3">
-        <v>45139.6666666667</v>
+        <v>45139.666666666701</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="3">
-        <v>45139.9395833333</v>
+        <v>45139.939583333296</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3">
-        <v>45140.0284722222</v>
+        <v>45140.028472222199</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="3">
-        <v>45140.4631944444</v>
+        <v>45140.463194444397</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="3">
-        <v>45140.6479166667</v>
+        <v>45140.647916666698</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:3">
+    <row r="37" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="3">
-        <v>45140.7458333333</v>
+        <v>45140.745833333298</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="3">
-        <v>45140.8909722222</v>
+        <v>45140.890972222202</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:3">
+    <row r="39" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3">
-        <v>45141.0277777778</v>
+        <v>45141.027777777803</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="3">
-        <v>45141.4666666667</v>
+        <v>45141.466666666704</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="3">
-        <v>45141.5861111111</v>
+        <v>45141.586111111101</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -3134,40 +2548,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:3">
+    <row r="43" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="3">
-        <v>45141.8479166667</v>
+        <v>45141.847916666702</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="3">
-        <v>45142.4659722222</v>
+        <v>45142.465972222199</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="3">
-        <v>45142.5951388889</v>
+        <v>45142.595138888901</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -3178,161 +2592,161 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:3">
+    <row r="47" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="3">
-        <v>45142.9291666667</v>
+        <v>45142.929166666698</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:3">
+    <row r="48" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="3">
-        <v>45143.0916666667</v>
+        <v>45143.091666666704</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="3">
-        <v>45143.4569444444</v>
+        <v>45143.456944444399</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="3">
-        <v>45143.6569444444</v>
+        <v>45143.656944444403</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="3">
-        <v>45143.8444444444</v>
+        <v>45143.844444444403</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="3">
-        <v>45143.9090277778</v>
+        <v>45143.909027777801</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:3">
+    <row r="53" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="3">
-        <v>45144.0375</v>
+        <v>45144.037499999999</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:3">
+    <row r="54" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="3">
-        <v>45144.1034722222</v>
+        <v>45144.103472222203</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:3">
+    <row r="55" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="3">
-        <v>45144.4902777778</v>
+        <v>45144.490277777797</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:3">
+    <row r="56" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="3">
-        <v>45144.6138888889</v>
+        <v>45144.613888888904</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:3">
+    <row r="57" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="3">
-        <v>45144.6805555556</v>
+        <v>45144.680555555598</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:3">
+    <row r="58" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="3">
-        <v>45144.7270833333</v>
+        <v>45144.727083333302</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:3">
+    <row r="59" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="3">
-        <v>45144.9569444444</v>
+        <v>45144.956944444399</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:3">
+    <row r="60" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="3">
-        <v>45144.9625</v>
+        <v>45144.962500000001</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:3">
+    <row r="61" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -3343,18 +2757,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:3">
+    <row r="62" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="3">
-        <v>45145.6527777778</v>
+        <v>45145.652777777803</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:3">
+    <row r="63" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -3365,18 +2779,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:3">
+    <row r="64" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="3">
-        <v>45145.8388888889</v>
+        <v>45145.838888888902</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:3">
+    <row r="65" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -3387,139 +2801,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:3">
+    <row r="66" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="3">
-        <v>45146.4631944444</v>
+        <v>45146.463194444397</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:3">
+    <row r="67" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="3">
-        <v>45146.5784722222</v>
+        <v>45146.578472222202</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="3">
-        <v>45146.6416666667</v>
+        <v>45146.641666666699</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:3">
+    <row r="69" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="3">
-        <v>45146.7340277778</v>
+        <v>45146.734027777798</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:3">
+    <row r="70" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="3">
-        <v>45147.0229166667</v>
+        <v>45147.022916666698</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:3">
+    <row r="71" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="3">
-        <v>45147.0527777778</v>
+        <v>45147.052777777797</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:3">
+    <row r="72" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="3">
-        <v>45147.0680555556</v>
+        <v>45147.068055555603</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:3">
+    <row r="73" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="3">
-        <v>45147.3131944444</v>
+        <v>45147.313194444403</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:3">
+    <row r="74" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="3">
-        <v>45147.5333333333</v>
+        <v>45147.533333333296</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:3">
+    <row r="75" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="3">
-        <v>45147.6972222222</v>
+        <v>45147.697222222203</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:3">
+    <row r="76" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="3">
-        <v>45147.7048611111</v>
+        <v>45147.704861111102</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:3">
+    <row r="77" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="3">
-        <v>45147.8381944444</v>
+        <v>45147.838194444397</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:3">
+    <row r="78" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -3530,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -3541,29 +2955,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:3">
+    <row r="80" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="3">
-        <v>45148.48125</v>
+        <v>45148.481249999997</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:3">
+    <row r="81" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="3">
-        <v>45148.5506944444</v>
+        <v>45148.550694444399</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:3">
+    <row r="82" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3574,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:3">
+    <row r="83" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -3585,18 +2999,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:3">
+    <row r="84" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="3">
-        <v>45149.0263888889</v>
+        <v>45149.026388888902</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:3">
+    <row r="85" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -3607,62 +3021,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:3">
+    <row r="86" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="3">
-        <v>45149.6618055556</v>
+        <v>45149.661805555603</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:3">
+    <row r="87" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B87" s="3">
-        <v>45149.6708333333</v>
+        <v>45149.670833333301</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:3">
+    <row r="88" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="3">
-        <v>45149.7298611111</v>
+        <v>45149.729861111096</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:3">
+    <row r="89" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B89" s="3">
-        <v>45150.1409722222</v>
+        <v>45150.140972222202</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:3">
+    <row r="90" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="3">
-        <v>45150.5319444444</v>
+        <v>45150.531944444403</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:3">
+    <row r="91" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -3673,51 +3087,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:3">
+    <row r="92" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="3">
-        <v>45150.7104166667</v>
+        <v>45150.710416666698</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:3">
+    <row r="93" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B93" s="3">
-        <v>45150.8458333333</v>
+        <v>45150.845833333296</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:3">
+    <row r="94" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="3">
-        <v>45151.0638888889</v>
+        <v>45151.063888888901</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:3">
+    <row r="95" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="3">
-        <v>45151.5458333333</v>
+        <v>45151.545833333301</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:3">
+    <row r="96" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -3728,172 +3142,172 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:3">
+    <row r="97" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="3">
-        <v>45151.7180555556</v>
+        <v>45151.718055555597</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:3">
+    <row r="98" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="3">
-        <v>45154.0548611111</v>
+        <v>45154.054861111101</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:3">
+    <row r="99" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="3">
-        <v>45155.5541666667</v>
+        <v>45155.554166666698</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:3">
+    <row r="100" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="3">
-        <v>45155.64375</v>
+        <v>45155.643750000003</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:3">
+    <row r="101" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B101" s="3">
-        <v>45155.6590277778</v>
+        <v>45155.659027777801</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:3">
+    <row r="102" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B102" s="3">
-        <v>45155.7465277778</v>
+        <v>45155.746527777803</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:3">
+    <row r="103" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B103" s="3">
-        <v>45155.8756944444</v>
+        <v>45155.875694444403</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:3">
+    <row r="104" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B104" s="3">
-        <v>45155.93125</v>
+        <v>45155.931250000001</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:3">
+    <row r="105" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B105" s="3">
-        <v>45155.9548611111</v>
+        <v>45155.954861111102</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:3">
+    <row r="106" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B106" s="3">
-        <v>45156.08125</v>
+        <v>45156.081250000003</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:3">
+    <row r="107" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="3">
-        <v>45156.4541666667</v>
+        <v>45156.454166666699</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:3">
+    <row r="108" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="3">
-        <v>45156.60625</v>
+        <v>45156.606249999997</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:3">
+    <row r="109" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="3">
-        <v>45156.6513888889</v>
+        <v>45156.651388888902</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:3">
+    <row r="110" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="3">
-        <v>45156.7020833333</v>
+        <v>45156.702083333301</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:3">
+    <row r="111" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B111" s="3">
-        <v>45156.9340277778</v>
+        <v>45156.934027777803</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:3">
+    <row r="112" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
@@ -3904,62 +3318,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:3">
+    <row r="113" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B113" s="3">
-        <v>45157.5277777778</v>
+        <v>45157.527777777803</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:3">
+    <row r="114" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B114" s="3">
-        <v>45157.6298611111</v>
+        <v>45157.629861111098</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:3">
+    <row r="115" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B115" s="3">
-        <v>45157.6638888889</v>
+        <v>45157.663888888899</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:3">
+    <row r="116" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B116" s="3">
-        <v>45157.7291666667</v>
+        <v>45157.729166666701</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:3">
+    <row r="117" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B117" s="3">
-        <v>45157.9520833333</v>
+        <v>45157.952083333301</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:3">
+    <row r="118" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
@@ -3970,51 +3384,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:3">
+    <row r="119" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B119" s="3">
-        <v>45158.5388888889</v>
+        <v>45158.538888888899</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:3">
+    <row r="120" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B120" s="3">
-        <v>45158.6548611111</v>
+        <v>45158.654861111099</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:3">
+    <row r="121" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B121" s="3">
-        <v>45158.6701388889</v>
+        <v>45158.670138888898</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:3">
+    <row r="122" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B122" s="3">
-        <v>45158.7159722222</v>
+        <v>45158.715972222199</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:3">
+    <row r="123" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
@@ -4025,18 +3439,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:3">
+    <row r="124" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B124" s="3">
-        <v>45159.5479166667</v>
+        <v>45159.547916666699</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:3">
+    <row r="125" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -4047,40 +3461,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:3">
+    <row r="126" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B126" s="3">
-        <v>45159.6833333333</v>
+        <v>45159.683333333298</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:3">
+    <row r="127" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="3">
-        <v>45159.8722222222</v>
+        <v>45159.872222222199</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:3">
+    <row r="128" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B128" s="3">
-        <v>45159.9840277778</v>
+        <v>45159.984027777798</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:3">
+    <row r="129" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
@@ -4091,139 +3505,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:3">
+    <row r="130" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B130" s="3">
-        <v>45160.2027777778</v>
+        <v>45160.202777777798</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:3">
+    <row r="131" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B131" s="3">
-        <v>45160.4118055556</v>
+        <v>45160.411805555603</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:3">
+    <row r="132" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="3">
-        <v>45160.6993055556</v>
+        <v>45160.699305555601</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:3">
+    <row r="133" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B133" s="3">
-        <v>45161.2548611111</v>
+        <v>45161.254861111098</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:3">
+    <row r="134" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="3">
-        <v>45161.3715277778</v>
+        <v>45161.371527777803</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:3">
+    <row r="135" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B135" s="3">
-        <v>45161.5784722222</v>
+        <v>45161.578472222202</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:3">
+    <row r="136" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="3">
-        <v>45161.6347222222</v>
+        <v>45161.634722222203</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:3">
+    <row r="137" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B137" s="3">
-        <v>45161.6666666667</v>
+        <v>45161.666666666701</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:3">
+    <row r="138" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B138" s="3">
-        <v>45161.70625</v>
+        <v>45161.706250000003</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:3">
+    <row r="139" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B139" s="3">
-        <v>45161.9326388889</v>
+        <v>45161.932638888902</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:3">
+    <row r="140" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B140" s="3">
-        <v>45162.1944444444</v>
+        <v>45162.194444444402</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:3">
+    <row r="141" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B141" s="3">
-        <v>45162.5319444444</v>
+        <v>45162.531944444403</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:3">
+    <row r="142" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
@@ -4234,73 +3648,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:3">
+    <row r="143" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B143" s="3">
-        <v>45162.6756944444</v>
+        <v>45162.675694444399</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:3">
+    <row r="144" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B144" s="3">
-        <v>45162.7347222222</v>
+        <v>45162.734722222202</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:3">
+    <row r="145" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B145" s="3">
-        <v>45162.9722222222</v>
+        <v>45162.972222222197</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:3">
+    <row r="146" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B146" s="3">
-        <v>45163.0194444444</v>
+        <v>45163.019444444399</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:3">
+    <row r="147" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="3">
-        <v>45163.3298611111</v>
+        <v>45163.329861111102</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:3">
+    <row r="148" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B148" s="3">
-        <v>45163.5708333333</v>
+        <v>45163.570833333302</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:3">
+    <row r="149" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -4311,73 +3725,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:3">
+    <row r="150" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B150" s="3">
-        <v>45163.6555555556</v>
+        <v>45163.655555555597</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:3">
+    <row r="151" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B151" s="3">
-        <v>45163.9069444444</v>
+        <v>45163.906944444403</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:3">
+    <row r="152" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B152" s="3">
-        <v>45163.9444444444</v>
+        <v>45163.944444444402</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:3">
+    <row r="153" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B153" s="3">
-        <v>45164.475</v>
+        <v>45164.474999999999</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:3">
+    <row r="154" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B154" s="3">
-        <v>45164.5506944444</v>
+        <v>45164.550694444399</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:3">
+    <row r="155" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B155" s="3">
-        <v>45164.6895833333</v>
+        <v>45164.689583333296</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:3">
+    <row r="156" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -4388,51 +3802,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:3">
+    <row r="157" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B157" s="3">
-        <v>45164.9611111111</v>
+        <v>45164.961111111101</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:3">
+    <row r="158" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="3">
-        <v>45165.0069444444</v>
+        <v>45165.006944444402</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:3">
+    <row r="159" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B159" s="3">
-        <v>45165.4826388889</v>
+        <v>45165.482638888898</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:3">
+    <row r="160" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B160" s="3">
-        <v>45165.5229166667</v>
+        <v>45165.522916666698</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:3">
+    <row r="161" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -4443,161 +3857,161 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:3">
+    <row r="162" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B162" s="3">
-        <v>45165.6979166667</v>
+        <v>45165.697916666701</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:3">
+    <row r="163" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B163" s="3">
-        <v>45166.0201388889</v>
+        <v>45166.020138888904</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:3">
+    <row r="164" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B164" s="3">
-        <v>45166.5097222222</v>
+        <v>45166.509722222203</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:3">
+    <row r="165" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B165" s="3">
-        <v>45166.6979166667</v>
+        <v>45166.697916666701</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:3">
+    <row r="166" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B166" s="3">
-        <v>45167.7270833333</v>
+        <v>45167.727083333302</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:3">
+    <row r="167" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B167" s="3">
-        <v>45167.85625</v>
+        <v>45167.856249999997</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:3">
+    <row r="168" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B168" s="3">
-        <v>45167.9069444444</v>
+        <v>45167.906944444403</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:3">
+    <row r="169" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B169" s="3">
-        <v>45167.9673611111</v>
+        <v>45167.967361111099</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="1:3">
+    <row r="170" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="3">
-        <v>45168.6465277778</v>
+        <v>45168.646527777797</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:3">
+    <row r="171" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B171" s="3">
-        <v>45168.7041666667</v>
+        <v>45168.704166666699</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:3">
+    <row r="172" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="3">
-        <v>45168.9118055556</v>
+        <v>45168.911805555603</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:3">
+    <row r="173" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B173" s="3">
-        <v>45168.9527777778</v>
+        <v>45168.952777777798</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:3">
+    <row r="174" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B174" s="3">
-        <v>45169.0166666667</v>
+        <v>45169.016666666699</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:3">
+    <row r="175" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B175" s="3">
-        <v>45169.5395833333</v>
+        <v>45169.539583333302</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:3">
+    <row r="176" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>178</v>
       </c>
@@ -4608,84 +4022,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:3">
+    <row r="177" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B177" s="3">
-        <v>45169.6680555556</v>
+        <v>45169.668055555601</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:3">
+    <row r="178" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B178" s="3">
-        <v>45169.7472222222</v>
+        <v>45169.747222222199</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:3">
+    <row r="179" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B179" s="3">
-        <v>45169.9458333333</v>
+        <v>45169.945833333302</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:3">
+    <row r="180" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B180" s="3">
-        <v>45170.0819444444</v>
+        <v>45170.081944444399</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:3">
+    <row r="181" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B181" s="3">
-        <v>45170.5125</v>
+        <v>45170.512499999997</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:3">
+    <row r="182" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="3">
-        <v>45170.6270833333</v>
+        <v>45170.627083333296</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:3">
+    <row r="183" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B183" s="3">
-        <v>45170.6986111111</v>
+        <v>45170.698611111096</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:3">
+    <row r="184" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>186</v>
       </c>
@@ -4696,7 +4110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:3">
+    <row r="185" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>187</v>
       </c>
@@ -4707,51 +4121,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:3">
+    <row r="186" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B186" s="3">
-        <v>45170.94375</v>
+        <v>45170.943749999999</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:3">
+    <row r="187" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B187" s="3">
-        <v>45170.9715277778</v>
+        <v>45170.971527777801</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:3">
+    <row r="188" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B188" s="3">
-        <v>45172.0645833333</v>
+        <v>45172.064583333296</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:3">
+    <row r="189" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="3">
-        <v>45172.7395833333</v>
+        <v>45172.739583333299</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:3">
+    <row r="190" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>192</v>
       </c>
@@ -4762,51 +4176,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:3">
+    <row r="191" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B191" s="3">
-        <v>45172.94375</v>
+        <v>45172.943749999999</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:3">
+    <row r="192" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B192" s="3">
-        <v>45173.0291666667</v>
+        <v>45173.029166666704</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:3">
+    <row r="193" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B193" s="3">
-        <v>45173.6208333333</v>
+        <v>45173.620833333298</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:3">
+    <row r="194" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B194" s="3">
-        <v>45173.6666666667</v>
+        <v>45173.666666666701</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:3">
+    <row r="195" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>197</v>
       </c>
@@ -4817,62 +4231,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:3">
+    <row r="196" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B196" s="3">
-        <v>45173.9472222222</v>
+        <v>45173.947222222203</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:3">
+    <row r="197" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B197" s="3">
-        <v>45174.0736111111</v>
+        <v>45174.073611111096</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:3">
+    <row r="198" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B198" s="3">
-        <v>45174.6423611111</v>
+        <v>45174.642361111102</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="199" customHeight="1" spans="1:3">
+    <row r="199" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B199" s="3">
-        <v>45174.6923611111</v>
+        <v>45174.692361111098</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:3">
+    <row r="200" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B200" s="3">
-        <v>45174.7416666667</v>
+        <v>45174.741666666698</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:3">
+    <row r="201" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>203</v>
       </c>
@@ -4883,40 +4297,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="1:3">
+    <row r="202" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B202" s="3">
-        <v>45174.9583333333</v>
+        <v>45174.958333333299</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:3">
+    <row r="203" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B203" s="3">
-        <v>45175.0243055556</v>
+        <v>45175.024305555598</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" customHeight="1" spans="1:3">
+    <row r="204" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B204" s="3">
-        <v>45175.4694444444</v>
+        <v>45175.469444444403</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="205" customHeight="1" spans="1:3">
+    <row r="205" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>207</v>
       </c>
@@ -4927,84 +4341,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" customHeight="1" spans="1:3">
+    <row r="206" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B206" s="3">
-        <v>45175.6520833333</v>
+        <v>45175.652083333298</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="207" customHeight="1" spans="1:3">
+    <row r="207" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="3">
-        <v>45175.7034722222</v>
+        <v>45175.703472222202</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" customHeight="1" spans="1:3">
+    <row r="208" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B208" s="3">
-        <v>45175.7430555556</v>
+        <v>45175.743055555598</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="1:3">
+    <row r="209" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B209" s="3">
-        <v>45176.3506944444</v>
+        <v>45176.350694444402</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="210" customHeight="1" spans="1:3">
+    <row r="210" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B210" s="3">
-        <v>45176.5958333333</v>
+        <v>45176.595833333296</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="211" customHeight="1" spans="1:3">
+    <row r="211" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B211" s="3">
-        <v>45176.6486111111</v>
+        <v>45176.648611111101</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" customHeight="1" spans="1:3">
+    <row r="212" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B212" s="3">
-        <v>45176.7270833333</v>
+        <v>45176.727083333302</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="213" customHeight="1" spans="1:3">
+    <row r="213" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>215</v>
       </c>
@@ -5015,7 +4429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" customHeight="1" spans="1:3">
+    <row r="214" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
@@ -5026,7 +4440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" customHeight="1" spans="1:3">
+    <row r="215" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>217</v>
       </c>
@@ -5037,62 +4451,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:3">
+    <row r="216" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B216" s="3">
-        <v>45177.5736111111</v>
+        <v>45177.573611111096</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="1:3">
+    <row r="217" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B217" s="3">
-        <v>45177.6583333333</v>
+        <v>45177.658333333296</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="218" customHeight="1" spans="1:3">
+    <row r="218" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B218" s="3">
-        <v>45177.7145833333</v>
+        <v>45177.714583333298</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="219" customHeight="1" spans="1:3">
+    <row r="219" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B219" s="3">
-        <v>45177.9055555556</v>
+        <v>45177.905555555597</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220" customHeight="1" spans="1:3">
+    <row r="220" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B220" s="3">
-        <v>45177.9493055556</v>
+        <v>45177.949305555601</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:3">
+    <row r="221" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>223</v>
       </c>
@@ -5103,117 +4517,117 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" customHeight="1" spans="1:3">
+    <row r="222" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B222" s="3">
-        <v>45178.0722222222</v>
+        <v>45178.072222222203</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="223" customHeight="1" spans="1:3">
+    <row r="223" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B223" s="3">
-        <v>45178.4388888889</v>
+        <v>45178.438888888901</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:3">
+    <row r="224" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B224" s="3">
-        <v>45178.4840277778</v>
+        <v>45178.484027777798</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="225" customHeight="1" spans="1:3">
+    <row r="225" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="3">
-        <v>45178.5166666667</v>
+        <v>45178.516666666699</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="226" customHeight="1" spans="1:3">
+    <row r="226" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B226" s="3">
-        <v>45178.6041666667</v>
+        <v>45178.604166666701</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="1:3">
+    <row r="227" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B227" s="3">
-        <v>45178.6506944444</v>
+        <v>45178.650694444397</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:3">
+    <row r="228" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B228" s="3">
-        <v>45178.7048611111</v>
+        <v>45178.704861111102</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="229" customHeight="1" spans="1:3">
+    <row r="229" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B229" s="3">
-        <v>45178.9486111111</v>
+        <v>45178.948611111096</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="230" customHeight="1" spans="1:3">
+    <row r="230" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B230" s="3">
-        <v>45179.0277777778</v>
+        <v>45179.027777777803</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:3">
+    <row r="231" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B231" s="3">
-        <v>45179.3361111111</v>
+        <v>45179.336111111101</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:3">
+    <row r="232" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>234</v>
       </c>
@@ -5224,18 +4638,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="1:3">
+    <row r="233" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B233" s="3">
-        <v>45179.7166666667</v>
+        <v>45179.716666666704</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:3">
+    <row r="234" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>236</v>
       </c>
@@ -5246,18 +4660,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:3">
+    <row r="235" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B235" s="3">
-        <v>45179.8076388889</v>
+        <v>45179.807638888902</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="236" customHeight="1" spans="1:3">
+    <row r="236" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>238</v>
       </c>
@@ -5268,51 +4682,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" customHeight="1" spans="1:3">
+    <row r="237" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B237" s="3">
-        <v>45179.9430555556</v>
+        <v>45179.943055555603</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:3">
+    <row r="238" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B238" s="3">
-        <v>45180.0479166667</v>
+        <v>45180.047916666699</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="239" customHeight="1" spans="1:3">
+    <row r="239" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B239" s="3">
-        <v>45180.3041666667</v>
+        <v>45180.304166666698</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="240" customHeight="1" spans="1:3">
+    <row r="240" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B240" s="3">
-        <v>45180.4048611111</v>
+        <v>45180.404861111099</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="241" customHeight="1" spans="1:3">
+    <row r="241" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>243</v>
       </c>
@@ -5323,40 +4737,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" customHeight="1" spans="1:3">
+    <row r="242" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B242" s="3">
-        <v>45180.6993055556</v>
+        <v>45180.699305555601</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="243" customHeight="1" spans="1:3">
+    <row r="243" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B243" s="3">
-        <v>45180.8520833333</v>
+        <v>45180.852083333302</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="1:3">
+    <row r="244" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B244" s="3">
-        <v>45180.9180555556</v>
+        <v>45180.918055555601</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="245" customHeight="1" spans="1:3">
+    <row r="245" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>247</v>
       </c>
@@ -5367,359 +4781,359 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" customHeight="1" spans="1:3">
+    <row r="246" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B246" s="3">
-        <v>45181.0423611111</v>
+        <v>45181.042361111096</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:3">
+    <row r="247" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B247" s="3">
-        <v>45181.3375</v>
+        <v>45181.337500000001</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="1:3">
+    <row r="248" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B248" s="3">
-        <v>45181.6402777778</v>
+        <v>45181.640277777798</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="249" customHeight="1" spans="1:3">
+    <row r="249" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B249" s="3">
-        <v>45181.6888888889</v>
+        <v>45181.688888888901</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="250" customHeight="1" spans="1:3">
+    <row r="250" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B250" s="3">
-        <v>45181.7208333333</v>
+        <v>45181.720833333296</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:3">
+    <row r="251" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B251" s="3">
-        <v>45181.8326388889</v>
+        <v>45181.832638888904</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="252" customHeight="1" spans="1:3">
+    <row r="252" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B252" s="3">
-        <v>45181.8784722222</v>
+        <v>45181.878472222197</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:3">
+    <row r="253" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B253" s="3">
-        <v>45181.9423611111</v>
+        <v>45181.942361111098</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="254" customHeight="1" spans="1:3">
+    <row r="254" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B254" s="3">
-        <v>45182.1256944444</v>
+        <v>45182.125694444403</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="255" customHeight="1" spans="1:3">
+    <row r="255" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B255" s="3">
-        <v>45182.4236111111</v>
+        <v>45182.423611111102</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="256" customHeight="1" spans="1:3">
+    <row r="256" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B256" s="3">
-        <v>45182.475</v>
+        <v>45182.474999999999</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="257" customHeight="1" spans="1:3">
+    <row r="257" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="3">
-        <v>45182.5597222222</v>
+        <v>45182.559722222199</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="258" customHeight="1" spans="1:3">
+    <row r="258" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B258" s="3">
-        <v>45182.6541666667</v>
+        <v>45182.654166666704</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="259" customHeight="1" spans="1:3">
+    <row r="259" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B259" s="3">
-        <v>45182.7451388889</v>
+        <v>45182.745138888902</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="1:3">
+    <row r="260" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B260" s="3">
-        <v>45182.8638888889</v>
+        <v>45182.863888888904</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:3">
+    <row r="261" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B261" s="3">
-        <v>45182.9111111111</v>
+        <v>45182.911111111098</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="1:3">
+    <row r="262" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B262" s="3">
-        <v>45183.5708333333</v>
+        <v>45183.570833333302</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="263" customHeight="1" spans="1:3">
+    <row r="263" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B263" s="3">
-        <v>45183.6395833333</v>
+        <v>45183.639583333301</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="264" customHeight="1" spans="1:3">
+    <row r="264" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B264" s="3">
-        <v>45198.3520833333</v>
+        <v>45198.352083333302</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="265" customHeight="1" spans="1:3">
+    <row r="265" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B265" s="3">
-        <v>45198.3784722222</v>
+        <v>45198.378472222197</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="266" customHeight="1" spans="1:3">
+    <row r="266" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B266" s="3">
-        <v>45198.3888888889</v>
+        <v>45198.388888888898</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="267" customHeight="1" spans="1:3">
+    <row r="267" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B267" s="3">
-        <v>45198.3944444444</v>
+        <v>45198.394444444399</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:3">
+    <row r="268" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B268" s="3">
-        <v>45198.4402777778</v>
+        <v>45198.440277777801</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:3">
+    <row r="269" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B269" s="3">
-        <v>45198.7347222222</v>
+        <v>45198.734722222202</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="1:3">
+    <row r="270" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B270" s="3">
-        <v>45198.9201388889</v>
+        <v>45198.920138888898</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="271" customHeight="1" spans="1:3">
+    <row r="271" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B271" s="3">
-        <v>45199.2131944444</v>
+        <v>45199.213194444397</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="272" customHeight="1" spans="1:3">
+    <row r="272" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B272" s="3">
-        <v>45199.3472222222</v>
+        <v>45199.347222222197</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="273" customHeight="1" spans="1:3">
+    <row r="273" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B273" s="3">
-        <v>45199.4006944444</v>
+        <v>45199.400694444397</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="274" customHeight="1" spans="1:3">
+    <row r="274" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B274" s="3">
-        <v>45200.0319444444</v>
+        <v>45200.031944444403</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="275" customHeight="1" spans="1:3">
+    <row r="275" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B275" s="3">
-        <v>45200.04375</v>
+        <v>45200.043749999997</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="276" customHeight="1" spans="1:3">
+    <row r="276" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B276" s="3">
-        <v>45200.2805555556</v>
+        <v>45200.280555555597</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="277" customHeight="1" spans="1:3">
+    <row r="277" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B277" s="3">
-        <v>45200.3888888889</v>
+        <v>45200.388888888898</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="278" customHeight="1" spans="1:3">
+    <row r="278" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>280</v>
       </c>
@@ -5730,183 +5144,183 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="1:3">
+    <row r="279" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B279" s="3">
-        <v>45200.7152777778</v>
+        <v>45200.715277777803</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="280" customHeight="1" spans="1:3">
+    <row r="280" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B280" s="3">
-        <v>45200.7201388889</v>
+        <v>45200.720138888901</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="1:3">
+    <row r="281" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B281" s="3">
-        <v>45200.9340277778</v>
+        <v>45200.934027777803</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="282" customHeight="1" spans="1:3">
+    <row r="282" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B282" s="3">
-        <v>45201.0819444444</v>
+        <v>45201.081944444399</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="283" customHeight="1" spans="1:3">
+    <row r="283" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B283" s="3">
-        <v>45201.1041666667</v>
+        <v>45201.104166666701</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="284" customHeight="1" spans="1:3">
+    <row r="284" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B284" s="3">
-        <v>45201.3756944444</v>
+        <v>45201.375694444403</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="285" customHeight="1" spans="1:3">
+    <row r="285" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B285" s="3">
-        <v>45201.5256944444</v>
+        <v>45201.525694444397</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:3">
+    <row r="286" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B286" s="3">
-        <v>45201.6243055556</v>
+        <v>45201.624305555597</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="287" customHeight="1" spans="1:3">
+    <row r="287" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B287" s="3">
-        <v>45201.9402777778</v>
+        <v>45201.940277777801</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:3">
+    <row r="288" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B288" s="3">
-        <v>45202.0701388889</v>
+        <v>45202.070138888899</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="289" customHeight="1" spans="1:3">
+    <row r="289" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B289" s="3">
-        <v>45202.4652777778</v>
+        <v>45202.465277777803</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="290" customHeight="1" spans="1:3">
+    <row r="290" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B290" s="3">
-        <v>45202.5868055556</v>
+        <v>45202.586805555598</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="291" customHeight="1" spans="1:3">
+    <row r="291" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B291" s="3">
-        <v>45202.8875</v>
+        <v>45202.887499999997</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="292" customHeight="1" spans="1:3">
+    <row r="292" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B292" s="3">
-        <v>45202.9027777778</v>
+        <v>45202.902777777803</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="293" customHeight="1" spans="1:3">
+    <row r="293" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B293" s="3">
-        <v>45202.9125</v>
+        <v>45202.912499999999</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="294" customHeight="1" spans="1:3">
+    <row r="294" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B294" s="3">
-        <v>45203.3451388889</v>
+        <v>45203.345138888901</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="295" customHeight="1" spans="1:3">
+    <row r="295" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>297</v>
       </c>
@@ -5917,29 +5331,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" customHeight="1" spans="1:3">
+    <row r="296" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B296" s="3">
-        <v>45204.1076388889</v>
+        <v>45204.107638888898</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="297" customHeight="1" spans="1:3">
+    <row r="297" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B297" s="3">
-        <v>45204.5902777778</v>
+        <v>45204.590277777803</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="298" customHeight="1" spans="1:3">
+    <row r="298" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>300</v>
       </c>
@@ -5950,29 +5364,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" customHeight="1" spans="1:3">
+    <row r="299" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B299" s="3">
-        <v>45204.9888888889</v>
+        <v>45204.988888888904</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="300" customHeight="1" spans="1:3">
+    <row r="300" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B300" s="3">
-        <v>45205.0430555556</v>
+        <v>45205.043055555601</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="301" customHeight="1" spans="1:3">
+    <row r="301" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>303</v>
       </c>
@@ -5983,95 +5397,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" customHeight="1" spans="1:3">
+    <row r="302" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B302" s="3">
-        <v>45205.6048611111</v>
+        <v>45205.604861111096</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="303" customHeight="1" spans="1:3">
+    <row r="303" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B303" s="3">
-        <v>45206.0104166667</v>
+        <v>45206.010416666701</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="304" customHeight="1" spans="1:3">
+    <row r="304" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B304" s="3">
-        <v>45206.0972222222</v>
+        <v>45206.097222222197</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="305" customHeight="1" spans="1:3">
+    <row r="305" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B305" s="3">
-        <v>45206.4638888889</v>
+        <v>45206.463888888902</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="306" customHeight="1" spans="1:3">
+    <row r="306" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B306" s="3">
-        <v>45206.5986111111</v>
+        <v>45206.598611111098</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" customHeight="1" spans="1:3">
+    <row r="307" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B307" s="3">
-        <v>45206.6034722222</v>
+        <v>45206.603472222203</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="308" customHeight="1" spans="1:3">
+    <row r="308" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B308" s="3">
-        <v>45206.6375</v>
+        <v>45206.637499999997</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="309" customHeight="1" spans="1:3">
+    <row r="309" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B309" s="3">
-        <v>45208.3645833333</v>
+        <v>45208.364583333299</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="310" customHeight="1" spans="1:3">
+    <row r="310" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>312</v>
       </c>
@@ -6082,84 +5496,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" customHeight="1" spans="1:3">
+    <row r="311" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B311" s="3">
-        <v>45208.6215277778</v>
+        <v>45208.621527777803</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="312" customHeight="1" spans="1:3">
+    <row r="312" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B312" s="3">
-        <v>45208.6222222222</v>
+        <v>45208.622222222199</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" customHeight="1" spans="1:3">
+    <row r="313" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B313" s="3">
-        <v>45208.6930555556</v>
+        <v>45208.693055555603</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="314" customHeight="1" spans="1:3">
+    <row r="314" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B314" s="3">
-        <v>45208.7111111111</v>
+        <v>45208.711111111101</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="315" customHeight="1" spans="1:3">
+    <row r="315" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B315" s="3">
-        <v>45208.9895833333</v>
+        <v>45208.989583333299</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="316" customHeight="1" spans="1:3">
+    <row r="316" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B316" s="3">
-        <v>45208.9895833333</v>
+        <v>45208.989583333299</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="317" customHeight="1" spans="1:3">
+    <row r="317" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B317" s="3">
-        <v>45208.9902777778</v>
+        <v>45208.990277777797</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="318" customHeight="1" spans="1:3">
+    <row r="318" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>320</v>
       </c>
@@ -6170,51 +5584,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" customHeight="1" spans="1:3">
+    <row r="319" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B319" s="3">
-        <v>45208.9916666667</v>
+        <v>45208.991666666698</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="320" customHeight="1" spans="1:3">
+    <row r="320" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B320" s="3">
-        <v>45208.9916666667</v>
+        <v>45208.991666666698</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="321" customHeight="1" spans="1:3">
+    <row r="321" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B321" s="3">
-        <v>45209.5993055556</v>
+        <v>45209.599305555603</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="322" customHeight="1" spans="1:3">
+    <row r="322" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B322" s="3">
-        <v>45209.6097222222</v>
+        <v>45209.609722222202</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="323" customHeight="1" spans="1:3">
+    <row r="323" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>325</v>
       </c>
@@ -6225,95 +5639,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" customHeight="1" spans="1:3">
+    <row r="324" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B324" s="3">
-        <v>45209.6840277778</v>
+        <v>45209.684027777803</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="325" customHeight="1" spans="1:3">
+    <row r="325" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B325" s="3">
-        <v>45209.7118055556</v>
+        <v>45209.711805555598</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="326" customHeight="1" spans="1:3">
+    <row r="326" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B326" s="3">
-        <v>45209.9368055556</v>
+        <v>45209.936805555597</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="327" customHeight="1" spans="1:3">
+    <row r="327" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B327" s="3">
-        <v>45209.9631944444</v>
+        <v>45209.963194444397</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="328" customHeight="1" spans="1:3">
+    <row r="328" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B328" s="3">
-        <v>45210.3986111111</v>
+        <v>45210.398611111101</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="329" customHeight="1" spans="1:3">
+    <row r="329" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B329" s="3">
-        <v>45210.41875</v>
+        <v>45210.418749999997</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="330" customHeight="1" spans="1:3">
+    <row r="330" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B330" s="3">
-        <v>45210.4576388889</v>
+        <v>45210.457638888904</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="331" customHeight="1" spans="1:3">
+    <row r="331" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B331" s="3">
-        <v>45210.6055555556</v>
+        <v>45210.605555555601</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="332" customHeight="1" spans="1:3">
+    <row r="332" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>334</v>
       </c>
@@ -6324,7 +5738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" customHeight="1" spans="1:3">
+    <row r="333" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>335</v>
       </c>
@@ -6335,95 +5749,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" customHeight="1" spans="1:3">
+    <row r="334" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B334" s="3">
-        <v>45210.6194444444</v>
+        <v>45210.619444444397</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="335" customHeight="1" spans="1:3">
+    <row r="335" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B335" s="3">
-        <v>45211.6708333333</v>
+        <v>45211.670833333301</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="336" customHeight="1" spans="1:3">
+    <row r="336" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B336" s="3">
-        <v>45211.6888888889</v>
+        <v>45211.688888888901</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="337" customHeight="1" spans="1:3">
+    <row r="337" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B337" s="3">
-        <v>45212.1541666667</v>
+        <v>45212.154166666704</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="338" customHeight="1" spans="1:3">
+    <row r="338" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B338" s="3">
-        <v>45213.1444444444</v>
+        <v>45213.144444444399</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="339" customHeight="1" spans="1:3">
+    <row r="339" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B339" s="3">
-        <v>45213.7194444444</v>
+        <v>45213.719444444403</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="340" customHeight="1" spans="1:3">
+    <row r="340" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B340" s="3">
-        <v>45215.1048611111</v>
+        <v>45215.104861111096</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="341" customHeight="1" spans="1:3">
+    <row r="341" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B341" s="3">
-        <v>45215.4888888889</v>
+        <v>45215.488888888904</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="342" customHeight="1" spans="1:3">
+    <row r="342" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>344</v>
       </c>
@@ -6434,62 +5848,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" customHeight="1" spans="1:3">
+    <row r="343" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B343" s="3">
-        <v>45215.7298611111</v>
+        <v>45215.729861111096</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="344" customHeight="1" spans="1:3">
+    <row r="344" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B344" s="3">
-        <v>45215.9104166667</v>
+        <v>45215.910416666702</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="345" customHeight="1" spans="1:3">
+    <row r="345" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B345" s="3">
-        <v>45215.9520833333</v>
+        <v>45215.952083333301</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="346" customHeight="1" spans="1:3">
+    <row r="346" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B346" s="3">
-        <v>45216.6819444444</v>
+        <v>45216.681944444397</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="347" customHeight="1" spans="1:3">
+    <row r="347" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B347" s="3">
-        <v>45216.74375</v>
+        <v>45216.743750000001</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="348" customHeight="1" spans="1:3">
+    <row r="348" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>350</v>
       </c>
@@ -6500,18 +5914,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" customHeight="1" spans="1:3">
+    <row r="349" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B349" s="3">
-        <v>45217.4305555556</v>
+        <v>45217.430555555598</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="350" customHeight="1" spans="1:3">
+    <row r="350" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>352</v>
       </c>
@@ -6522,150 +5936,150 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" customHeight="1" spans="1:3">
+    <row r="351" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B351" s="3">
-        <v>45217.74375</v>
+        <v>45217.743750000001</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="352" customHeight="1" spans="1:3">
+    <row r="352" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B352" s="3">
-        <v>45217.9930555556</v>
+        <v>45217.993055555598</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="353" customHeight="1" spans="1:3">
+    <row r="353" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B353" s="3">
-        <v>45218.4979166667</v>
+        <v>45218.497916666704</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="354" customHeight="1" spans="1:3">
+    <row r="354" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B354" s="3">
-        <v>45218.6298611111</v>
+        <v>45218.629861111098</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="355" customHeight="1" spans="1:3">
+    <row r="355" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B355" s="3">
-        <v>45218.7083333333</v>
+        <v>45218.708333333299</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="356" customHeight="1" spans="1:3">
+    <row r="356" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B356" s="3">
-        <v>45218.7479166667</v>
+        <v>45218.747916666704</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="357" customHeight="1" spans="1:3">
+    <row r="357" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B357" s="3">
-        <v>45218.9576388889</v>
+        <v>45218.957638888904</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="358" customHeight="1" spans="1:3">
+    <row r="358" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B358" s="3">
-        <v>45219.61875</v>
+        <v>45219.618750000001</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="359" customHeight="1" spans="1:3">
+    <row r="359" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B359" s="3">
-        <v>45219.7138888889</v>
+        <v>45219.713888888902</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="360" customHeight="1" spans="1:3">
+    <row r="360" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B360" s="3">
-        <v>45219.7395833333</v>
+        <v>45219.739583333299</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="361" customHeight="1" spans="1:3">
+    <row r="361" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B361" s="3">
-        <v>45220.1222222222</v>
+        <v>45220.122222222199</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="362" customHeight="1" spans="1:3">
+    <row r="362" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B362" s="3">
-        <v>45220.5118055556</v>
+        <v>45220.511805555601</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="363" customHeight="1" spans="1:3">
+    <row r="363" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B363" s="3">
-        <v>45220.6034722222</v>
+        <v>45220.603472222203</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="364" customHeight="1" spans="1:3">
+    <row r="364" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>366</v>
       </c>
@@ -6676,73 +6090,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" customHeight="1" spans="1:3">
+    <row r="365" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B365" s="3">
-        <v>45220.7298611111</v>
+        <v>45220.729861111096</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="366" customHeight="1" spans="1:3">
+    <row r="366" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B366" s="3">
-        <v>45220.8847222222</v>
+        <v>45220.884722222203</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="367" customHeight="1" spans="1:3">
+    <row r="367" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B367" s="3">
-        <v>45220.9548611111</v>
+        <v>45220.954861111102</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="368" customHeight="1" spans="1:3">
+    <row r="368" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B368" s="3">
-        <v>45221.5659722222</v>
+        <v>45221.565972222197</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="369" customHeight="1" spans="1:3">
+    <row r="369" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B369" s="3">
-        <v>45221.6138888889</v>
+        <v>45221.613888888904</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="370" customHeight="1" spans="1:3">
+    <row r="370" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B370" s="3">
-        <v>45221.6722222222</v>
+        <v>45221.672222222202</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="371" customHeight="1" spans="1:3">
+    <row r="371" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>373</v>
       </c>
@@ -6753,128 +6167,128 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" customHeight="1" spans="1:3">
+    <row r="372" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B372" s="3">
-        <v>45221.9138888889</v>
+        <v>45221.913888888899</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="373" customHeight="1" spans="1:3">
+    <row r="373" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B373" s="3">
-        <v>45221.9659722222</v>
+        <v>45221.965972222199</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="374" customHeight="1" spans="1:3">
+    <row r="374" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B374" s="3">
-        <v>45222.8826388889</v>
+        <v>45222.882638888899</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="375" customHeight="1" spans="1:3">
+    <row r="375" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B375" s="3">
-        <v>45223.3680555556</v>
+        <v>45223.368055555598</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="376" customHeight="1" spans="1:3">
+    <row r="376" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B376" s="3">
-        <v>45223.3805555556</v>
+        <v>45223.380555555603</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="377" customHeight="1" spans="1:3">
+    <row r="377" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B377" s="3">
-        <v>45226.5256944444</v>
+        <v>45226.525694444397</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="378" customHeight="1" spans="1:3">
+    <row r="378" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B378" s="3">
-        <v>45227.4319444444</v>
+        <v>45227.431944444397</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="379" customHeight="1" spans="1:3">
+    <row r="379" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B379" s="3">
-        <v>45227.4881944444</v>
+        <v>45227.488194444399</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="380" customHeight="1" spans="1:3">
+    <row r="380" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B380" s="3">
-        <v>45228.6756944444</v>
+        <v>45228.675694444399</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="381" customHeight="1" spans="1:3">
+    <row r="381" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>383</v>
       </c>
       <c r="B381" s="3">
-        <v>45231.6583333333</v>
+        <v>45231.658333333296</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="382" customHeight="1" spans="1:3">
+    <row r="382" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B382" s="3">
-        <v>45265.3520833333</v>
+        <v>45265.352083333302</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="383" customHeight="1" spans="1:3">
+    <row r="383" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>385</v>
       </c>
@@ -6885,84 +6299,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" customHeight="1" spans="1:3">
+    <row r="384" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B384" s="3">
-        <v>45268.4486111111</v>
+        <v>45268.448611111096</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="385" customHeight="1" spans="1:3">
+    <row r="385" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B385" s="3">
-        <v>45280.9930555556</v>
+        <v>45280.993055555598</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="386" customHeight="1" spans="1:3">
+    <row r="386" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B386" s="3">
-        <v>45293.8597222222</v>
+        <v>45293.859722222202</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="387" customHeight="1" spans="1:3">
+    <row r="387" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B387" s="3">
-        <v>45293.8604166667</v>
+        <v>45293.860416666699</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="388" customHeight="1" spans="1:3">
+    <row r="388" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B388" s="3">
-        <v>45294.6854166667</v>
+        <v>45294.685416666704</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="389" customHeight="1" spans="1:3">
+    <row r="389" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B389" s="3">
-        <v>45294.6868055556</v>
+        <v>45294.686805555597</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="390" customHeight="1" spans="1:3">
+    <row r="390" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B390" s="3">
-        <v>45294.6868055556</v>
+        <v>45294.686805555597</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="391" customHeight="1" spans="1:3">
+    <row r="391" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>393</v>
       </c>
@@ -6973,228 +6387,228 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" customHeight="1" spans="1:3">
+    <row r="392" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B392" s="3">
-        <v>45294.9986111111</v>
+        <v>45294.998611111099</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="393" customHeight="1" spans="1:3">
+    <row r="393" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B393" s="3">
-        <v>45294.9993055556</v>
+        <v>45294.999305555597</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="394" customHeight="1" spans="1:3">
+    <row r="394" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B394" s="3">
-        <v>45294.9993055556</v>
+        <v>45294.999305555597</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="395" customHeight="1" spans="1:3">
+    <row r="395" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B395" s="3">
-        <v>45294.9993055556</v>
+        <v>45294.999305555597</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="396" customHeight="1" spans="1:3">
+    <row r="396" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B396" s="3">
-        <v>45296.6506944444</v>
+        <v>45296.650694444397</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="397" customHeight="1" spans="1:3">
+    <row r="397" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B397" s="3">
-        <v>45296.6506944444</v>
+        <v>45296.650694444397</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="398" customHeight="1" spans="1:3">
+    <row r="398" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B398" s="3">
-        <v>45296.6506944444</v>
+        <v>45296.650694444397</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="399" customHeight="1" spans="1:3">
+    <row r="399" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B399" s="3">
-        <v>45296.6506944444</v>
+        <v>45296.650694444397</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="400" customHeight="1" spans="1:3">
+    <row r="400" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>402</v>
       </c>
       <c r="B400" s="3">
-        <v>45296.6513888889</v>
+        <v>45296.651388888902</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="401" customHeight="1" spans="1:3">
+    <row r="401" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B401" s="3">
-        <v>45296.6513888889</v>
+        <v>45296.651388888902</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="402" customHeight="1" spans="1:3">
+    <row r="402" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B402" s="3">
-        <v>45296.6513888889</v>
+        <v>45296.651388888902</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="403" customHeight="1" spans="1:3">
+    <row r="403" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B403" s="3">
-        <v>45296.6513888889</v>
+        <v>45296.651388888902</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="404" customHeight="1" spans="1:3">
+    <row r="404" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B404" s="3">
-        <v>45296.6513888889</v>
+        <v>45296.651388888902</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="405" customHeight="1" spans="1:3">
+    <row r="405" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B405" s="3">
-        <v>45296.6513888889</v>
+        <v>45296.651388888902</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="406" customHeight="1" spans="1:3">
+    <row r="406" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B406" s="3">
-        <v>45298.6333333333</v>
+        <v>45298.633333333302</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="407" customHeight="1" spans="1:3">
+    <row r="407" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B407" s="3">
-        <v>45299.7215277778</v>
+        <v>45299.721527777801</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="408" customHeight="1" spans="1:3">
+    <row r="408" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B408" s="3">
-        <v>45300.5479166667</v>
+        <v>45300.547916666699</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="409" customHeight="1" spans="1:3">
+    <row r="409" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>411</v>
       </c>
       <c r="B409" s="3">
-        <v>45300.5486111111</v>
+        <v>45300.548611111102</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="95.4444444444444" defaultRowHeight="50" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="95.46484375" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="95.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="95.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7205,51 +6619,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B2" s="3">
-        <v>45127.9576388889</v>
+        <v>45127.957638888904</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B3" s="3">
-        <v>45128.4319444444</v>
+        <v>45128.431944444397</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B4" s="3">
-        <v>45129.4381944444</v>
+        <v>45129.438194444403</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B5" s="3">
-        <v>45130.6902777778</v>
+        <v>45130.690277777801</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>416</v>
       </c>
@@ -7260,40 +6674,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B7" s="3">
-        <v>45131.5868055556</v>
+        <v>45131.586805555598</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B8" s="3">
-        <v>45131.5916666667</v>
+        <v>45131.591666666704</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B9" s="3">
-        <v>45131.8986111111</v>
+        <v>45131.898611111101</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>420</v>
       </c>
@@ -7304,547 +6718,581 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B11" s="3">
-        <v>45132.5909722222</v>
+        <v>45132.590972222199</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B12" s="3">
-        <v>45132.8958333333</v>
+        <v>45132.895833333299</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B13" s="3">
-        <v>45133.5666666667</v>
+        <v>45133.566666666702</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B14" s="3">
-        <v>45133.9180555556</v>
+        <v>45133.918055555601</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="3">
-        <v>45144.9625</v>
+        <v>45144.962500000001</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="3">
-        <v>45145.6527777778</v>
+        <v>45145.652777777803</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B17" s="3">
-        <v>45147.0527777778</v>
+        <v>45158.670138888898</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45200.280555555597</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45202.902777777803</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45202.912499999999</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45204.9555555556</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45204.988888888904</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45205.043055555601</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45206.010416666701</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45206.097222222197</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45206.463888888902</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45206.603472222203</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45206.637499999997</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45209.6430555556</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45215.104861111096</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45215.952083333301</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45223.380555555603</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45226.525694444397</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45227.431944444397</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45231.658333333296</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45294.6875</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414AF461-4174-4EC5-85C2-CBBCA1AA20AC}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="95.46484375" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="95.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="95.46484375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45147.052777777797</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B3" s="3">
+        <v>45147.068055555603</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45147.704861111102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45147.8618055556</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45149.661805555603</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45151.063888888901</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45151.718055555597</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45155.659027777801</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45155.931250000001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45157.663888888899</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45198.352083333302</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45198.378472222197</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45198.388888888898</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45199.347222222197</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45200.031944444403</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45200.715277777803</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="B18" s="3">
-        <v>45147.0680555556</v>
+        <v>45202.465277777803</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="B19" s="3">
-        <v>45147.7048611111</v>
+        <v>45204.0805555556</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="B20" s="3">
-        <v>45147.8618055556</v>
+        <v>45204.107638888898</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="B21" s="3">
-        <v>45149.6618055556</v>
+        <v>45205.4506944444</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c r="B22" s="3">
-        <v>45151.0638888889</v>
+        <v>45210.457638888904</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="B23" s="3">
-        <v>45151.7180555556</v>
+        <v>45218.708333333299</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="B24" s="3">
-        <v>45155.6590277778</v>
+        <v>45227.488194444399</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="3">
-        <v>45155.93125</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45157.6638888889</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="3">
-        <v>45158.6701388889</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="3">
-        <v>45198.3520833333</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="3">
-        <v>45198.3784722222</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" s="3">
-        <v>45198.3888888889</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="3">
-        <v>45199.3472222222</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B32" s="3">
-        <v>45200.0319444444</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B33" s="3">
-        <v>45200.2805555556</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B34" s="3">
-        <v>45200.7152777778</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B35" s="3">
-        <v>45202.4652777778</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B36" s="3">
-        <v>45202.9027777778</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" s="3">
-        <v>45202.9125</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B38" s="3">
-        <v>45204.0805555556</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B39" s="3">
-        <v>45204.1076388889</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="3">
-        <v>45204.9555555556</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B41" s="3">
-        <v>45204.9888888889</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B42" s="3">
-        <v>45205.0430555556</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B43" s="3">
-        <v>45205.4506944444</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B44" s="3">
-        <v>45206.0104166667</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B45" s="3">
-        <v>45206.0972222222</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B46" s="3">
-        <v>45206.4638888889</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B47" s="3">
-        <v>45206.6034722222</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B48" s="3">
-        <v>45206.6375</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B49" s="3">
-        <v>45209.6430555556</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B50" s="3">
-        <v>45210.4576388889</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B51" s="3">
-        <v>45215.1048611111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B52" s="3">
-        <v>45215.9520833333</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B53" s="3">
-        <v>45218.7083333333</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B54" s="3">
-        <v>45223.3805555556</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B55" s="3">
-        <v>45226.5256944444</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B56" s="3">
-        <v>45227.4319444444</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B57" s="3">
-        <v>45227.4881944444</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B58" s="3">
-        <v>45231.6583333333</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B59" s="3">
-        <v>45294.6875</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>